--- a/data/output/matched_sample.xlsx
+++ b/data/output/matched_sample.xlsx
@@ -7,10 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SBS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="GTIN" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="GMDN" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="UNMATCHED" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Matched Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -442,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,231 +460,146 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SBS Code</t>
+          <t>service type</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Short Description</t>
+          <t>NPHIES Code</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>SBS Code Hyphenated</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Other Code Value</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Confidence</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Reasoning</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Reason</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>D1228</t>
+          <t>D1227</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ortho appliance deboning for quadrant</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>978710060</t>
+          <t>Orthodontic implant</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GMDN</t>
         </is>
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>Removal of fixed orthodontic appliances; incomplete treatment</t>
+          <t>47996</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>97871-00-60</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+          <t>Orthodontic anchor plate</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>A small metallic plate that is implanted intraorally to serve as a temporary anchor for an orthodontic device (e.g., a spring). It is available in various sizes and lengths and is anchored to the jawbone with dedicated bone screws. It is used in a variety of orthodontic treatment situations, especially when normal anatomy has been compromised (e.g., due to periodontal disease or agenesis, displacement of teeth in the same direction, asymmetrical anatomy). This is a single-use device.</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>MEDIUM</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Debonding refers to removal of fixed orthodontic brackets/bands. Candidate 3 (97871-00-60) describes removal of fixed orthodontic appliances with 'incomplete treatment' qualifier, which aligns with partial removal (quadrant-specific) rather than full-arch removal. Domain and service type match (orthodontic removal procedure). Minor ambiguity exists as 'incomplete treatment' may refer to treatment status rather than partial removal extent, warranting medium confidence and potential verification that quadrant debonding is coded as incomplete vs. complete removal.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Service Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Service Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GTIN Code</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>GTIN Ingredients</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GTIN Strength</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Confidence</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Reasoning</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>06221075150078</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>AMRIZOLE 500MG VAGINAL SUPPOSITORIES_x000d_</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>06221075150078</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>METRONIDAZOLE</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>500 MG</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Exact match on all parameters: brand name (AMRIZOLE), strength (500mg), route (vaginal), and formulation (suppositories). All checks pass including domain (pharmaceutical GTIN), service type (vaginal suppository), dose (500mg exact), and route (vaginal). No excludes violations.</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>An orthodontic implant is a temporary anchorage device (TAD) surgically placed to provide fixed support for orthodontic forces. Candidate 47996 'Orthodontic anchor plate' is the closest match as it describes an orthodontic anchoring device. Other candidates describe appliances (adjustable systems, moulds, clasps, bands, springs) rather than implanted anchors, or general dental implants without orthodontic specificity. Confidence is MEDIUM due to 'anchor plate' terminology versus 'implant' - both serve orthodontic anchorage but may differ in design; however, this is the most clinically appropriate device code available.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>06251159026081</t>
+          <t>06221075150078</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASMADIL TABS 2MG_x000d_</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>06251159026081</t>
+          <t>AMRIZOLE 500MG VAGINAL SUPPOSITORIES_x000d_</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GTIN</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>SALBUTAMOL</t>
+          <t>06221075150078</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>2 MG</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+          <t>METRONIDAZOLE</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>500 MG</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Exact match on drug name (ASMADIL), strength (2MG), and dosage form (TABS/tablets). Candidate 1 is a precise pharmaceutical match with all parameters aligned. All other candidates are either different drugs or unrelated SBS procedure codes.</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Exact match on all parameters: brand name (AMRIZOLE), strength (500mg), route (vaginal), and formulation (suppositories). All checks pass including domain (pharmaceutical GTIN), service type (vaginal suppository), dose (500mg exact), and route (vaginal). No excludes violations.</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>06285101001062</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>CIFLOX 200MG-100ML I.V. INFUSION</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>06285101001062</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>CIPROFLOXACIN</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>200 MG/ 100 ML</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Candidate 12 is an exact match for the input product name, strength (200mg), volume (100ml), and route (IV infusion). All domain, service type, numerical parameters, and qualifiers align perfectly. This is the precise pharmaceutical product requested.</t>
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>04056500012759</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>BEKUNIS TABLET_x000d_</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr"/>
+      <c r="E4" s="3" t="inlineStr"/>
+      <c r="F4" s="3" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>BEKUNIS is a known laxative brand containing senna. The only laxative candidates are LAXATROL (Candidates 7-8), but these are different products with different active ingredients and formulations. EUCARBON, PANADOL SINUS, SETININ, VEGA, and ESSERA are unrelated pharmaceutical products. No candidate matches the specific BEKUNIS brand or its senna-based formulation. Returning null is safer than mismatching a different laxative product.</t>
         </is>
       </c>
     </row>
@@ -702,223 +614,77 @@
           <t>EPENTAL 0.5G VIAL</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>GTIN</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
         <is>
           <t>06221032312105</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
         <is>
           <t>THIOPENTAL (THIOPENTONE) SODIUM</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>500 MG</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Exact match on all parameters: brand name (EPENTAL), strength (0.5G), and formulation (vial). Domain is pharmaceutical (GTIN system appropriate), service type matches precisely, and all quantitative parameters align perfectly. No excludes/includes metadata provided, but clinical identity is unambiguous.</t>
         </is>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Service Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Service Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>GMDN Code</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>GMDN Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>GMDN Definition</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Confidence</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Reasoning</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>D1227</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Orthodontic implant</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>47996</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Orthodontic anchor plate</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>A small metallic plate that is implanted intraorally to serve as a temporary anchor for an orthodontic device (e.g., a spring). It is available in various sizes and lengths and is anchored to the jawbone with dedicated bone screws. It is used in a variety of orthodontic treatment situations, especially when normal anatomy has been compromised (e.g., due to periodontal disease or agenesis, displacement of teeth in the same direction, asymmetrical anatomy). This is a single-use device.</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>MEDIUM</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>An orthodontic implant is a temporary anchorage device (TAD) surgically placed to provide fixed support for orthodontic forces. Candidate 47996 'Orthodontic anchor plate' is the closest match as it describes an orthodontic anchoring device. Other candidates describe appliances (adjustable systems, moulds, clasps, bands, springs) rather than implanted anchors, or general dental implants without orthodontic specificity. Confidence is MEDIUM due to 'anchor plate' terminology versus 'implant' - both serve orthodontic anchorage but may differ in design; however, this is the most clinically appropriate device code available.</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t xml:space="preserve">54487
 </t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>1,25-Dihydroxy vitamin D3 IVD, reagent</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>GMDN</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
         <is>
           <t>54487</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>1,25-Dihydroxy vitamin D3 IVD, reagent</t>
         </is>
       </c>
-      <c r="E3" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>A substance or reactant intended to be used together with a parent IVD to perform a specific function in an assay that is used for the qualitative and/or quantitative detection of 1,25-dihydroxy vitamin D3 in a clinical specimen.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Candidate 1 is an exact match - same analyte (1,25-dihydroxy vitamin D3), same domain (IVD), and critically, same format (reagent vs kit). Candidates 2-4 are kits with specific assay methods (radioimmunoassay, chemiluminescent, liquid chromatography), not reagents. SBS codes are for measurement procedures, not the reagent itself. GTIN codes are pharmaceutical vitamin D products, not IVD reagents. All checks pass with perfect alignment.</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Service Code</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Service Description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Confidence</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Reasoning</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>04056500012759</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>BEKUNIS TABLET_x000d_</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>BEKUNIS is a known laxative brand containing senna. The only laxative candidates are LAXATROL (Candidates 7-8), but these are different products with different active ingredients and formulations. EUCARBON, PANADOL SINUS, SETININ, VEGA, and ESSERA are unrelated pharmaceutical products. No candidate matches the specific BEKUNIS brand or its senna-based formulation. Returning null is safer than mismatching a different laxative product.</t>
         </is>
       </c>
     </row>

--- a/data/output/matched_sample.xlsx
+++ b/data/output/matched_sample.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,111 +527,112 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>An orthodontic implant is a temporary anchorage device (TAD) surgically placed to provide fixed support for orthodontic forces. Candidate 47996 'Orthodontic anchor plate' is the closest match as it describes an orthodontic anchoring device. Other candidates describe appliances (adjustable systems, moulds, clasps, bands, springs) rather than implanted anchors, or general dental implants without orthodontic specificity. Confidence is MEDIUM due to 'anchor plate' terminology versus 'implant' - both serve orthodontic anchorage but may differ in design; however, this is the most clinically appropriate device code available.</t>
+          <t>An orthodontic implant is a temporary anchorage device (TAD) surgically placed to provide fixed support for orthodontic forces. Candidate 47996 'Orthodontic anchor plate' is the closest match as it describes an orthodontic anchoring device. Other candidates describe appliances (adjustable systems, positioning moulds, clasps, bands, springs) rather than implanted anchors, or general dental implants without orthodontic specificity. Confidence is MEDIUM due to 'anchor plate' terminology versus 'implant' - both serve orthodontic anchorage but may differ in design; however, this is the most clinically appropriate device code available.</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>06221075150078</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AMRIZOLE 500MG VAGINAL SUPPOSITORIES_x000d_</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>04056500012759</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>BEKUNIS TABLET_x000D_</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr"/>
+      <c r="E3" s="3" t="inlineStr"/>
+      <c r="F3" s="3" t="inlineStr"/>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>BEKUNIS is a known laxative brand, but none of the GTIN candidates match this product. Candidates 1-2 are EUCARBON (different brand), candidates 7-8 are LAXATROL (different laxative brand with specified strengths 50mg/8.60mg), and remaining candidates are unrelated medications (Panadol Sinus, Vega, Setinin, Essera). SBS candidates 4-6 are procedures, not pharmaceuticals. No clinical match found; returning null is safer than guessing.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>06221032312105</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EPENTAL 0.5G VIAL</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>GTIN</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>06221075150078</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>METRONIDAZOLE</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>06221032312105</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>THIOPENTAL (THIOPENTONE) SODIUM</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>500 MG</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>HIGH</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Exact match on all parameters: brand name (AMRIZOLE), strength (500mg), route (vaginal), and formulation (suppositories). All checks pass including domain (pharmaceutical GTIN), service type (vaginal suppository), dose (500mg exact), and route (vaginal). No excludes violations.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>04056500012759</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>BEKUNIS TABLET_x000d_</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>undefined</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr"/>
-      <c r="E4" s="3" t="inlineStr"/>
-      <c r="F4" s="3" t="inlineStr"/>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>NONE</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>BEKUNIS is a known laxative brand containing senna. The only laxative candidates are LAXATROL (Candidates 7-8), but these are different products with different active ingredients and formulations. EUCARBON, PANADOL SINUS, SETININ, VEGA, and ESSERA are unrelated pharmaceutical products. No candidate matches the specific BEKUNIS brand or its senna-based formulation. Returning null is safer than mismatching a different laxative product.</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Exact match on all parameters: brand name (EPENTAL), strength (0.5G), and formulation (vial). Domain is pharmaceutical (GTIN system appropriate), service type matches precisely, and all quantitative parameters align perfectly. No excludes/includes metadata provided, but clinical identity is unambiguous.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>06221032312105</t>
+          <t xml:space="preserve">54487
+</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>EPENTAL 0.5G VIAL</t>
+          <t>1,25-Dihydroxy vitamin D3 IVD, reagent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>GTIN</t>
+          <t>GMDN</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>06221032312105</t>
+          <t>54487</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>THIOPENTAL (THIOPENTONE) SODIUM</t>
+          <t>1,25-Dihydroxy vitamin D3 IVD, reagent</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>500 MG</t>
+          <t>A substance or reactant intended to be used together with a parent IVD to perform a specific function in an assay that is used for the qualitative and/or quantitative detection of 1,25-dihydroxy vitamin D3 in a clinical specimen.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -641,40 +642,39 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Exact match on all parameters: brand name (EPENTAL), strength (0.5G), and formulation (vial). Domain is pharmaceutical (GTIN system appropriate), service type matches precisely, and all quantitative parameters align perfectly. No excludes/includes metadata provided, but clinical identity is unambiguous.</t>
+          <t>Candidate 1 is an exact match - same analyte (1,25-dihydroxy vitamin D3), same domain (IVD), and critically, same format (reagent vs kit). Candidates 2-4 are kits with specific assay methods (radioimmunoassay, chemiluminescent, liquid chromatography), not reagents. SBS codes are for measurement procedures, not the reagent itself. GTIN codes are pharmaceutical vitamin D products, not IVD reagents. All checks pass with perfect alignment.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">54487
-</t>
+          <t>D1174</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1,25-Dihydroxy vitamin D3 IVD, reagent</t>
+          <t>Fabricated post _x000D_</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>GMDN</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>54487</t>
+          <t>976251000</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,25-Dihydroxy vitamin D3 IVD, reagent</t>
+          <t>Indirectly fabricated post and core; per tooth</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>A substance or reactant intended to be used together with a parent IVD to perform a specific function in an assay that is used for the qualitative and/or quantitative detection of 1,25-dihydroxy vitamin D3 in a clinical specimen.</t>
+          <t>97625-10-00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -684,7 +684,109 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Candidate 1 is an exact match - same analyte (1,25-dihydroxy vitamin D3), same domain (IVD), and critically, same format (reagent vs kit). Candidates 2-4 are kits with specific assay methods (radioimmunoassay, chemiluminescent, liquid chromatography), not reagents. SBS codes are for measurement procedures, not the reagent itself. GTIN codes are pharmaceutical vitamin D products, not IVD reagents. All checks pass with perfect alignment.</t>
+          <t>Input specifies 'fabricated post' which matches the procedural service of creating a custom post. Candidate 2 describes 'indirectly fabricated post and core' which encompasses the fabrication process for a custom dental post. Domain (restorative dentistry), service type (fabrication procedure), and qualifiers (fabricated/custom) all align. This is a procedural code for the service of fabricating the post, distinct from the preformed post devices (GMDN 38609) or preformed post placement (SBS 97597-00-00).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>D1175</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Post and core_x000D_</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr"/>
+      <c r="E7" s="3" t="inlineStr"/>
+      <c r="F7" s="3" t="inlineStr"/>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>Input 'Post and core' is ambiguous without qualifiers. Multiple candidates exist for different services: prefabricated post placement (97625-20-00), indirectly fabricated post (97625-10-00), repair/recementation (97629-01-00), and removal (97629-02-00). Without specification of the actual procedure being performed (placement vs repair vs removal) or fabrication method, selecting any single code would be clinically indefensible and risks claim rejection. Human clarification required.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>D1176</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>bone graft+mmebrane_x000D_</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>undefined</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr"/>
+      <c r="E8" s="3" t="inlineStr"/>
+      <c r="F8" s="3" t="inlineStr"/>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>NONE</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>Input describes MATERIALS (bone graft + membrane as products/devices), but candidates are predominantly SBS procedure codes (surgical placement/reconstruction) or individual GMDN device codes for either graft OR membrane separately. No single candidate represents the combined material supply of both bone graft and membrane as billable items. Candidates 1/5 are graft materials only; candidates 2/4 are membranes only; SBS codes describe surgical procedures using these materials, not the materials themselves. Without clarity on whether billing is for the procedure or the materials, and lacking a candidate covering both components, returning null is safest.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>D1177</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Crown Zirconia_x000D_</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SBS</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>976130200</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>Zirconium crown, indirect; per crown</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>97613-02-00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Candidate 1 passes all checks: domain matches (dental prosthetics), service type matches (crown), material matches (zirconium/zirconia are the same element), scope matches (per crown, indirect fabrication). No excludes violations. This is the exact clinical match for a zirconia crown procedure.</t>
         </is>
       </c>
     </row>
